--- a/training-exercises/output/cas.xlsx
+++ b/training-exercises/output/cas.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <workbookPr date1904="false"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="13125" windowHeight="6105" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
 </workbook>
 </file>
@@ -14,1414 +14,1414 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="470" uniqueCount="470">
   <si>
-    <t>district</t>
-  </si>
-  <si>
-    <t>school</t>
-  </si>
-  <si>
-    <t>county</t>
-  </si>
-  <si>
-    <t>grades</t>
-  </si>
-  <si>
-    <t>students</t>
-  </si>
-  <si>
-    <t>teachers</t>
-  </si>
-  <si>
-    <t>calworks</t>
-  </si>
-  <si>
-    <t>lunch</t>
-  </si>
-  <si>
-    <t>computer</t>
-  </si>
-  <si>
-    <t>expenditure</t>
-  </si>
-  <si>
-    <t>income</t>
-  </si>
-  <si>
-    <t>english</t>
-  </si>
-  <si>
-    <t>read</t>
-  </si>
-  <si>
-    <t>math</t>
-  </si>
-  <si>
-    <t>Los Altos Elementary</t>
-  </si>
-  <si>
-    <t>Santa Clara</t>
-  </si>
-  <si>
-    <t>KK-08</t>
-  </si>
-  <si>
-    <t>Las Lomitas Elementary</t>
-  </si>
-  <si>
-    <t>San Mateo</t>
-  </si>
-  <si>
-    <t>Saratoga Union Elementary</t>
-  </si>
-  <si>
-    <t>Portola Valley Elementary</t>
-  </si>
-  <si>
-    <t>Cold Spring Elementary</t>
-  </si>
-  <si>
-    <t>Santa Barbara</t>
-  </si>
-  <si>
-    <t>KK-06</t>
-  </si>
-  <si>
-    <t>Hillsborough City Elementary</t>
-  </si>
-  <si>
-    <t>Orinda Union Elementary</t>
-  </si>
-  <si>
-    <t>Contra Costa</t>
-  </si>
-  <si>
-    <t>Moraga Elementary</t>
-  </si>
-  <si>
-    <t>Del Mar Union Elementary</t>
-  </si>
-  <si>
-    <t>San Diego</t>
-  </si>
-  <si>
-    <t>Woodside Elementary</t>
-  </si>
-  <si>
-    <t>Lafayette Elementary</t>
-  </si>
-  <si>
-    <t>Mill Valley Elementary</t>
-  </si>
-  <si>
-    <t>Marin</t>
-  </si>
-  <si>
-    <t>Reed Union Elementary</t>
-  </si>
-  <si>
-    <t>Menlo Park City Elementary</t>
-  </si>
-  <si>
-    <t>Solana Beach Elementary</t>
-  </si>
-  <si>
-    <t>Montecito Union Elementary</t>
-  </si>
-  <si>
-    <t>Sunol Glen Unified</t>
-  </si>
-  <si>
-    <t>Alameda</t>
-  </si>
-  <si>
-    <t>Los Gatos Union Elementary</t>
-  </si>
-  <si>
-    <t>Pacific Elementary</t>
-  </si>
-  <si>
-    <t>Santa Cruz</t>
-  </si>
-  <si>
-    <t>Cupertino Union Elementary</t>
-  </si>
-  <si>
-    <t>Larkspur Elementary</t>
-  </si>
-  <si>
-    <t>Hope Elementary</t>
-  </si>
-  <si>
-    <t>Walnut Creek Elementary</t>
-  </si>
-  <si>
-    <t>Happy Valley Elementary</t>
-  </si>
-  <si>
-    <t>Bonny Doon Union Elementary</t>
-  </si>
-  <si>
-    <t>Burlingame Elementary</t>
-  </si>
-  <si>
-    <t>Grant Elementary</t>
-  </si>
-  <si>
-    <t>Shasta</t>
-  </si>
-  <si>
-    <t>Oak Grove Union Elementary</t>
-  </si>
-  <si>
-    <t>Sonoma</t>
-  </si>
-  <si>
-    <t>Mountain Elementary</t>
-  </si>
-  <si>
-    <t>Ross Valley Elementary</t>
-  </si>
-  <si>
-    <t>Ballard Elementary</t>
-  </si>
-  <si>
-    <t>Kentfield Elementary</t>
-  </si>
-  <si>
-    <t>Knights Ferry Elementary</t>
-  </si>
-  <si>
-    <t>Stanislaus</t>
-  </si>
-  <si>
-    <t>Liberty Elementary</t>
-  </si>
-  <si>
-    <t>Kenwood Elementary</t>
-  </si>
-  <si>
-    <t>Loma Prieta Joint Union Elemen</t>
-  </si>
-  <si>
-    <t>Bennett Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Rincon Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Washington Union Elementary</t>
-  </si>
-  <si>
-    <t>Monterey</t>
-  </si>
-  <si>
-    <t>Lakeside Joint Elementary</t>
-  </si>
-  <si>
-    <t>Hermosa Beach City Elementary</t>
-  </si>
-  <si>
-    <t>Los Angeles</t>
-  </si>
-  <si>
-    <t>Dixie Elementary</t>
-  </si>
-  <si>
-    <t>Encinitas Union Elementary</t>
-  </si>
-  <si>
-    <t>Fort Ross Elementary</t>
-  </si>
-  <si>
-    <t>Nevada City Elementary</t>
-  </si>
-  <si>
-    <t>Nevada</t>
-  </si>
-  <si>
-    <t>Jacoby Creek Elementary</t>
-  </si>
-  <si>
-    <t>Humboldt</t>
-  </si>
-  <si>
-    <t>North Cow Creek Elementary</t>
-  </si>
-  <si>
-    <t>Weaverville Elementary</t>
-  </si>
-  <si>
-    <t>Trinity</t>
-  </si>
-  <si>
-    <t>Mesa Union Elementary</t>
-  </si>
-  <si>
-    <t>Ventura</t>
-  </si>
-  <si>
-    <t>Newcastle Elementary</t>
-  </si>
-  <si>
-    <t>Placer</t>
-  </si>
-  <si>
-    <t>Pleasant Ridge Union Elementary</t>
-  </si>
-  <si>
-    <t>Douglas City Elementary</t>
-  </si>
-  <si>
-    <t>Pacific Union Elementary</t>
-  </si>
-  <si>
-    <t>Twin Hills Union Elementary</t>
-  </si>
-  <si>
-    <t>Union Hill Elementary</t>
-  </si>
-  <si>
-    <t>Latrobe Elementary</t>
-  </si>
-  <si>
-    <t>El Dorado</t>
-  </si>
-  <si>
-    <t>San Pasqual Union Elementary</t>
-  </si>
-  <si>
-    <t>Alta-Dutch Flat Union Elementary</t>
-  </si>
-  <si>
-    <t>Rescue Union Elementary</t>
-  </si>
-  <si>
-    <t>Belmont-Redwood Shores Elementary</t>
-  </si>
-  <si>
-    <t>Two Rock Union Elementary</t>
-  </si>
-  <si>
-    <t>Clay Joint Elementary</t>
-  </si>
-  <si>
-    <t>Fresno</t>
-  </si>
-  <si>
-    <t>Waugh Elementary</t>
-  </si>
-  <si>
-    <t>Coarsegold Union Elementary</t>
-  </si>
-  <si>
-    <t>Madera</t>
-  </si>
-  <si>
-    <t>Richmond Elementary</t>
-  </si>
-  <si>
-    <t>Lassen</t>
-  </si>
-  <si>
-    <t>Plumas Elementary</t>
-  </si>
-  <si>
-    <t>Yuba</t>
-  </si>
-  <si>
-    <t>Cayucos Elementary</t>
-  </si>
-  <si>
-    <t>San Luis Obisp</t>
-  </si>
-  <si>
-    <t>Ready Springs Union Elementary</t>
-  </si>
-  <si>
-    <t>Dunham Elementary</t>
-  </si>
-  <si>
-    <t>San Carlos Elementary</t>
-  </si>
-  <si>
-    <t>Loomis Union Elementary</t>
-  </si>
-  <si>
-    <t>Saugus Union Elementary</t>
-  </si>
-  <si>
-    <t>Placer Hills Union Elementary</t>
-  </si>
-  <si>
-    <t>Rocklin Unified</t>
-  </si>
-  <si>
-    <t>Buckeye Union Elementary</t>
-  </si>
-  <si>
-    <t>Gold Trail Union Elementary</t>
-  </si>
-  <si>
-    <t>Hydesville Elementary</t>
-  </si>
-  <si>
-    <t>Fountain Valley Elementary</t>
-  </si>
-  <si>
-    <t>Orange</t>
-  </si>
-  <si>
-    <t>Gold Oak Union Elementary</t>
-  </si>
-  <si>
-    <t>Union Elementary</t>
-  </si>
-  <si>
-    <t>Fruitvale Elementary</t>
-  </si>
-  <si>
-    <t>Kern</t>
-  </si>
-  <si>
-    <t>Cottonwood Union Elementary</t>
-  </si>
-  <si>
-    <t>Fieldbrook Elementary</t>
-  </si>
-  <si>
-    <t>Dehesa Elementary</t>
-  </si>
-  <si>
-    <t>Richfield Elementary</t>
-  </si>
-  <si>
-    <t>Tehama</t>
-  </si>
-  <si>
-    <t>Newhall Elementary</t>
-  </si>
-  <si>
-    <t>Cambrian Elementary</t>
-  </si>
-  <si>
-    <t>Lowell Joint Elementary</t>
-  </si>
-  <si>
-    <t>Cypress Elementary</t>
-  </si>
-  <si>
-    <t>Bonsall Union Elementary</t>
-  </si>
-  <si>
-    <t>Lagunitas Elementary</t>
-  </si>
-  <si>
-    <t>Saucelito Elementary</t>
-  </si>
-  <si>
-    <t>Tulare</t>
-  </si>
-  <si>
-    <t>Cardiff Elementary</t>
-  </si>
-  <si>
-    <t>Kings River-Hardwick Union Elementary</t>
-  </si>
-  <si>
-    <t>Kings</t>
-  </si>
-  <si>
-    <t>Julian Union Elementary</t>
-  </si>
-  <si>
-    <t>Maple Elementary</t>
-  </si>
-  <si>
-    <t>Moreland Elementary</t>
-  </si>
-  <si>
-    <t>Springville Union Elementary</t>
-  </si>
-  <si>
-    <t>Norris Elementary</t>
-  </si>
-  <si>
-    <t>Freshwater Elementary</t>
-  </si>
-  <si>
-    <t>Alpine Union Elementary</t>
-  </si>
-  <si>
-    <t>Sebastopol Union Elementary</t>
-  </si>
-  <si>
-    <t>Curtis Creek Elementary</t>
-  </si>
-  <si>
-    <t>Tuolumne</t>
-  </si>
-  <si>
-    <t>Fort Jones Union Elementary</t>
-  </si>
-  <si>
-    <t>Siskiyou</t>
-  </si>
-  <si>
-    <t>Santee Elementary</t>
-  </si>
-  <si>
-    <t>Mark West Union Elementary</t>
-  </si>
-  <si>
-    <t>Pleasant Valley Elementary</t>
-  </si>
-  <si>
-    <t>Johnstonville Elementary</t>
-  </si>
-  <si>
-    <t>Pioneer Union Elementary</t>
-  </si>
-  <si>
-    <t>Soquel Elementary</t>
-  </si>
-  <si>
-    <t>La Mesa-Spring Valley</t>
-  </si>
-  <si>
-    <t>Gravenstein Union Elementary</t>
-  </si>
-  <si>
-    <t>Solvang Elementary</t>
-  </si>
-  <si>
-    <t>Capay Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>Glenn</t>
-  </si>
-  <si>
-    <t>Huntington Beach City Elementary</t>
-  </si>
-  <si>
-    <t>College Elementary</t>
-  </si>
-  <si>
-    <t>Sunnyvale Elementary</t>
-  </si>
-  <si>
-    <t>Helendale Elementary</t>
-  </si>
-  <si>
-    <t>San Bernardino</t>
-  </si>
-  <si>
-    <t>Petaluma City Elementary</t>
-  </si>
-  <si>
-    <t>Goleta Union Elementary</t>
-  </si>
-  <si>
-    <t>San Mateo-Foster City Elementary</t>
-  </si>
-  <si>
-    <t>Lake Elementary</t>
-  </si>
-  <si>
-    <t>Ocean View Elementary</t>
-  </si>
-  <si>
-    <t>Mother Lode Union Elementary</t>
-  </si>
-  <si>
-    <t>Foresthill Union Elementary</t>
-  </si>
-  <si>
-    <t>Alta Loma Elementary</t>
-  </si>
-  <si>
-    <t>Evergreen Union Elementary</t>
-  </si>
-  <si>
-    <t>Santa Cruz City Elementary</t>
-  </si>
-  <si>
-    <t>Wright Elementary</t>
-  </si>
-  <si>
-    <t>Arcata Elementary</t>
-  </si>
-  <si>
-    <t>Old Adobe Union Elementary</t>
-  </si>
-  <si>
-    <t>Ackerman Elementary</t>
-  </si>
-  <si>
-    <t>Wilmar Union Elementary</t>
-  </si>
-  <si>
-    <t>Placerville Union Elementary</t>
-  </si>
-  <si>
-    <t>Cutten Elementary</t>
-  </si>
-  <si>
-    <t>Bass Lake Joint Elementary</t>
-  </si>
-  <si>
-    <t>Piner-Olivet Union Elementary</t>
-  </si>
-  <si>
-    <t>Rosedale Union Elementary</t>
-  </si>
-  <si>
-    <t>Columbine Elementary</t>
-  </si>
-  <si>
-    <t>Mt. Shasta Union Elementary</t>
-  </si>
-  <si>
-    <t>Columbia Elementary</t>
-  </si>
-  <si>
-    <t>Colfax Elementary</t>
-  </si>
-  <si>
-    <t>Sulphur Springs Union Elementary</t>
-  </si>
-  <si>
-    <t>Mountain View Elementary</t>
-  </si>
-  <si>
-    <t>Bella Vista Elementary</t>
-  </si>
-  <si>
-    <t>Hughes-Elizabeth Lakes Union Elementar</t>
-  </si>
-  <si>
-    <t>Forestville Union Elementary</t>
-  </si>
-  <si>
-    <t>Susanville Elementary</t>
-  </si>
-  <si>
-    <t>Panama Buena Vista Union Elementary</t>
-  </si>
-  <si>
-    <t>Gratton Elementary</t>
-  </si>
-  <si>
-    <t>Sonora Elementary</t>
-  </si>
-  <si>
-    <t>Roseville City Elementary</t>
-  </si>
-  <si>
-    <t>Laguna Salada Union Elementary</t>
-  </si>
-  <si>
-    <t>Evergreen Elementary</t>
-  </si>
-  <si>
-    <t>Millbrae Elementary</t>
-  </si>
-  <si>
-    <t>Ballico-Cressey Elementary</t>
-  </si>
-  <si>
-    <t>Merced</t>
-  </si>
-  <si>
-    <t>Manzanita Elementary</t>
-  </si>
-  <si>
-    <t>Butte</t>
-  </si>
-  <si>
-    <t>Harmony Union Elementary</t>
-  </si>
-  <si>
-    <t>Westside Union Elementary</t>
-  </si>
-  <si>
-    <t>Columbia Union Elementary</t>
-  </si>
-  <si>
-    <t>Sundale Union Elementary</t>
-  </si>
-  <si>
-    <t>Three Rivers Union Elementary</t>
-  </si>
-  <si>
-    <t>Alexander Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Yreka Union Elementary</t>
-  </si>
-  <si>
-    <t>Chawanakee Jt. Elementary</t>
-  </si>
-  <si>
-    <t>Twin Ridges Elementary</t>
-  </si>
-  <si>
-    <t>Castaic Union Elementary</t>
-  </si>
-  <si>
-    <t>Buellton Union Elementary</t>
-  </si>
-  <si>
-    <t>Bishop Union Elementary</t>
-  </si>
-  <si>
-    <t>Inyo</t>
-  </si>
-  <si>
-    <t>Oak Grove Elementary</t>
-  </si>
-  <si>
-    <t>Pollock Pines Elementary</t>
-  </si>
-  <si>
-    <t>Pleasant Valley Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>Scotia Union Elementary</t>
-  </si>
-  <si>
-    <t>Wiseburn Elementary</t>
-  </si>
-  <si>
-    <t>Centralia Elementary</t>
-  </si>
-  <si>
-    <t>Etiwanda Elementary</t>
-  </si>
-  <si>
-    <t>Antelope Elementary</t>
-  </si>
-  <si>
-    <t>San Bruno Park Elementary</t>
-  </si>
-  <si>
-    <t>Guerneville Elementary</t>
-  </si>
-  <si>
-    <t>Clear Creek Elementary</t>
-  </si>
-  <si>
-    <t>Browns Elementary</t>
-  </si>
-  <si>
-    <t>Sutter</t>
-  </si>
-  <si>
-    <t>Campbell Union Elementary</t>
-  </si>
-  <si>
-    <t>Cajon Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Trinidad Union Elementary</t>
-  </si>
-  <si>
-    <t>San Rafael City Elementary</t>
-  </si>
-  <si>
-    <t>Central Union Elementary</t>
-  </si>
-  <si>
-    <t>Mark Twain Union Elementary</t>
-  </si>
-  <si>
-    <t>Calaveras</t>
-  </si>
-  <si>
-    <t>Happy Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Pacheco Union Elementary</t>
-  </si>
-  <si>
-    <t>Brisbane Elementary</t>
-  </si>
-  <si>
-    <t>Chicago Park Elementary</t>
-  </si>
-  <si>
-    <t>Central Elementary</t>
-  </si>
-  <si>
-    <t>North County Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>San Benito</t>
-  </si>
-  <si>
-    <t>Wheatland Elementary</t>
-  </si>
-  <si>
-    <t>Oak View Union Elementary</t>
-  </si>
-  <si>
-    <t>San Joaquin</t>
-  </si>
-  <si>
-    <t>Kit Carson Union Elementary</t>
-  </si>
-  <si>
-    <t>Auburn Union Elementary</t>
-  </si>
-  <si>
-    <t>Berryessa Union Elementary</t>
-  </si>
-  <si>
-    <t>Sylvan Union Elementary</t>
-  </si>
-  <si>
-    <t>Alvina Elementary</t>
-  </si>
-  <si>
-    <t>Jefferson Elementary</t>
-  </si>
-  <si>
-    <t>Oakley Union Elementary</t>
-  </si>
-  <si>
-    <t>Lakeside Union Elementary</t>
-  </si>
-  <si>
-    <t>Southside Elementary</t>
-  </si>
-  <si>
-    <t>Etna Union Elementary</t>
-  </si>
-  <si>
-    <t>Galt Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>Sacramento</t>
-  </si>
-  <si>
-    <t>Nuestro Elementary</t>
-  </si>
-  <si>
-    <t>Kernville Union Elementary</t>
-  </si>
-  <si>
-    <t>Rosemead Elementary</t>
-  </si>
-  <si>
-    <t>Grass Valley Elementary</t>
-  </si>
-  <si>
-    <t>Buena Vista Elementary</t>
-  </si>
-  <si>
-    <t>Junction Elementary</t>
-  </si>
-  <si>
-    <t>Loleta Union Elementary</t>
-  </si>
-  <si>
-    <t>Lassen View Union Elementary</t>
-  </si>
-  <si>
-    <t>Lammersville Elementary</t>
-  </si>
-  <si>
-    <t>McCabe Union Elementary</t>
-  </si>
-  <si>
-    <t>Imperial</t>
-  </si>
-  <si>
-    <t>Whisman Elementary</t>
-  </si>
-  <si>
-    <t>Menifee Union Elementary</t>
-  </si>
-  <si>
-    <t>Riverside</t>
-  </si>
-  <si>
-    <t>Live Oak Elementary</t>
-  </si>
-  <si>
-    <t>Jamul-Dulzura Union Elementary</t>
-  </si>
-  <si>
-    <t>South Fork Union Elementary</t>
-  </si>
-  <si>
-    <t>Santa Barbara Elementary</t>
-  </si>
-  <si>
-    <t>Mountain Union Elementary</t>
-  </si>
-  <si>
-    <t>Cinnabar Elementary</t>
-  </si>
-  <si>
-    <t>Rohnerville Elementary</t>
-  </si>
-  <si>
-    <t>Magnolia Union Elementary</t>
-  </si>
-  <si>
-    <t>Pleasant Grove Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>Fullerton Elementary</t>
-  </si>
-  <si>
-    <t>Shaffer Union Elementary</t>
-  </si>
-  <si>
-    <t>Monte Rio Union Elementary</t>
-  </si>
-  <si>
-    <t>Janesville Union Elementary</t>
-  </si>
-  <si>
-    <t>Plaza Elementary</t>
-  </si>
-  <si>
-    <t>Rockford  Elementary</t>
-  </si>
-  <si>
-    <t>Shasta Union Elementary</t>
-  </si>
-  <si>
-    <t>Salida Union Elementary</t>
-  </si>
-  <si>
-    <t>Santa Rosa Elementary</t>
-  </si>
-  <si>
-    <t>Fortuna Union Elementary</t>
-  </si>
-  <si>
-    <t>Ophir Elementary</t>
-  </si>
-  <si>
-    <t>Montgomery Elementary</t>
-  </si>
-  <si>
-    <t>Summerville Elementary</t>
-  </si>
-  <si>
-    <t>Brentwood Union Elementary</t>
-  </si>
-  <si>
-    <t>South Bay Union Elementary</t>
-  </si>
-  <si>
-    <t>Weed Union Elementary</t>
-  </si>
-  <si>
-    <t>Jamestown Elementary</t>
-  </si>
-  <si>
-    <t>Red Bluff Union Elementary</t>
-  </si>
-  <si>
-    <t>Enterprise Elementary</t>
-  </si>
-  <si>
-    <t>Savanna Elementary</t>
-  </si>
-  <si>
-    <t>West Side Union Elementary</t>
-  </si>
-  <si>
-    <t>Victor Elementary</t>
-  </si>
-  <si>
-    <t>Vallecitos Elementary</t>
-  </si>
-  <si>
-    <t>Marcum-Illinois Union Elementary</t>
-  </si>
-  <si>
-    <t>Rio Bravo-Greeley Union Elementary</t>
-  </si>
-  <si>
-    <t>East Whittier City Elementary</t>
-  </si>
-  <si>
-    <t>Escondido Union Elementary</t>
-  </si>
-  <si>
-    <t>Golden Feather Union Elementary</t>
-  </si>
-  <si>
-    <t>McSwain Union Elementary</t>
-  </si>
-  <si>
-    <t>Franklin Elementary</t>
-  </si>
-  <si>
-    <t>Chula Vista Elementary</t>
-  </si>
-  <si>
-    <t>Tulare City Elementary</t>
-  </si>
-  <si>
-    <t>Black Butte Union Elementary</t>
-  </si>
-  <si>
-    <t>Westminster Elementary</t>
-  </si>
-  <si>
-    <t>Island Union Elementary</t>
-  </si>
-  <si>
-    <t>Buena Park Elementary</t>
-  </si>
-  <si>
-    <t>Dunsmuir Elementary</t>
-  </si>
-  <si>
-    <t>New Jerusalem Elementary</t>
-  </si>
-  <si>
-    <t>Kingsburg Joint Union Elementary</t>
-  </si>
-  <si>
-    <t>Stanislaus Union Elementary</t>
-  </si>
-  <si>
-    <t>Arcohe Union Elementary</t>
-  </si>
-  <si>
-    <t>Peninsula Union Elementary</t>
-  </si>
-  <si>
-    <t>Reeds Creek Elementary</t>
-  </si>
-  <si>
-    <t>Upper Lake Union Elementary</t>
-  </si>
-  <si>
-    <t>Lake</t>
-  </si>
-  <si>
-    <t>Lemon Grove Elementary</t>
-  </si>
-  <si>
-    <t>Hueneme Elementary</t>
-  </si>
-  <si>
-    <t>Blue Lake Union Elementary</t>
-  </si>
-  <si>
-    <t>Somis Union Elementary</t>
-  </si>
-  <si>
-    <t>Cuddeback Union Elementary</t>
-  </si>
-  <si>
-    <t>Merced River Union Elementary</t>
-  </si>
-  <si>
-    <t>Chatom Union Elementary</t>
-  </si>
-  <si>
-    <t>Washington Colony Elementary</t>
-  </si>
-  <si>
-    <t>Rio Linda Union Elementary</t>
-  </si>
-  <si>
-    <t>Banta Elementary</t>
-  </si>
-  <si>
-    <t>Plainsburg Union Elementary</t>
-  </si>
-  <si>
-    <t>Redwood City Elementary</t>
-  </si>
-  <si>
-    <t>Camino Union Elementary</t>
-  </si>
-  <si>
-    <t>General Shafter Elementary</t>
-  </si>
-  <si>
-    <t>Twain Harte-Long Barn Union Elementary</t>
-  </si>
-  <si>
-    <t>Thermalito Union Elementary</t>
-  </si>
-  <si>
-    <t>Turlock Joint Elementary</t>
-  </si>
-  <si>
-    <t>Garvey Elementary</t>
-  </si>
-  <si>
-    <t>Corning Union Elementary</t>
-  </si>
-  <si>
-    <t>Bellevue Union Elementary</t>
-  </si>
-  <si>
-    <t>Nuview Union Elementary</t>
-  </si>
-  <si>
-    <t>Big Springs Union Elementary</t>
-  </si>
-  <si>
-    <t>Burton Elementary</t>
-  </si>
-  <si>
-    <t>American Union Elementary</t>
-  </si>
-  <si>
-    <t>San Antonio Union Elementary</t>
-  </si>
-  <si>
-    <t>Exeter Union Elementary</t>
-  </si>
-  <si>
-    <t>Gerber Union Elementary</t>
-  </si>
-  <si>
-    <t>Kings River Union Elementary</t>
-  </si>
-  <si>
-    <t>Cascade Union Elementary</t>
-  </si>
-  <si>
-    <t>El Centro Elementary</t>
-  </si>
-  <si>
-    <t>Mt. Pleasant Elementary</t>
-  </si>
-  <si>
-    <t>Magnolia Elementary</t>
-  </si>
-  <si>
-    <t>Palermo Union Elementary</t>
-  </si>
-  <si>
-    <t>Alview-Dairyland Union Elementary</t>
-  </si>
-  <si>
-    <t>Lancaster Elementary</t>
-  </si>
-  <si>
-    <t>Briggs Elementary</t>
-  </si>
-  <si>
-    <t>Monroe Elementary</t>
-  </si>
-  <si>
-    <t>Standard Elementary</t>
-  </si>
-  <si>
-    <t>Oroville City Elementary</t>
-  </si>
-  <si>
-    <t>Palmdale Elementary</t>
-  </si>
-  <si>
-    <t>Hollister School District</t>
-  </si>
-  <si>
-    <t>Adelanto Elementary</t>
-  </si>
-  <si>
-    <t>Brittan Elementary</t>
-  </si>
-  <si>
-    <t>Arena Union Elementary</t>
-  </si>
-  <si>
-    <t>Mendocino</t>
-  </si>
-  <si>
-    <t>Taft City Elementary</t>
-  </si>
-  <si>
-    <t>Pond Union Elementary</t>
-  </si>
-  <si>
-    <t>Meadows Union Elementary</t>
-  </si>
-  <si>
-    <t>Brawley Elementary</t>
-  </si>
-  <si>
-    <t>Little Lake City Elementary</t>
-  </si>
-  <si>
-    <t>Wilsona Elementary</t>
-  </si>
-  <si>
-    <t>Bayshore Elementary</t>
-  </si>
-  <si>
-    <t>Oak Valley Union Elementary</t>
-  </si>
-  <si>
-    <t>Bangor Union Elementary</t>
-  </si>
-  <si>
-    <t>Luther Burbank Elementary</t>
-  </si>
-  <si>
-    <t>Lucerne Elementary</t>
-  </si>
-  <si>
-    <t>Elverta Joint Elementary</t>
-  </si>
-  <si>
-    <t>El Monte City Elementary</t>
-  </si>
-  <si>
-    <t>Palo Verde Union Elementary</t>
-  </si>
-  <si>
-    <t>Greenfield Union Elementary</t>
-  </si>
-  <si>
-    <t>Romoland Elementary</t>
-  </si>
-  <si>
-    <t>Lucerne Valley Unified</t>
-  </si>
-  <si>
-    <t>Weaver Union Elementary</t>
-  </si>
-  <si>
-    <t>Atwater Elementary</t>
-  </si>
-  <si>
-    <t>West Park Elementary</t>
-  </si>
-  <si>
-    <t>Santa Paula Elementary</t>
-  </si>
-  <si>
-    <t>McCloud Union Elementary</t>
-  </si>
-  <si>
-    <t>Montague Elementary</t>
-  </si>
-  <si>
-    <t>Guadalupe Union Elementary</t>
-  </si>
-  <si>
-    <t>Knightsen Elementary</t>
-  </si>
-  <si>
-    <t>Rio Dell Elementary</t>
-  </si>
-  <si>
-    <t>Cucamonga Elementary</t>
-  </si>
-  <si>
-    <t>Merced City Elementary</t>
-  </si>
-  <si>
-    <t>Keppel Union Elementary</t>
-  </si>
-  <si>
-    <t>Di Giorgio Elementary</t>
-  </si>
-  <si>
-    <t>National Elementary</t>
-  </si>
-  <si>
-    <t>South Whittier Elementary</t>
-  </si>
-  <si>
-    <t>Roseland Elementary</t>
-  </si>
-  <si>
-    <t>Hanford Elementary</t>
-  </si>
-  <si>
-    <t>Armona Union Elementary</t>
-  </si>
-  <si>
-    <t>Beardsley Elementary</t>
-  </si>
-  <si>
-    <t>Lemoore Union Elementary</t>
-  </si>
-  <si>
-    <t>Anaheim Elementary</t>
-  </si>
-  <si>
-    <t>North Sacramento Elementary</t>
-  </si>
-  <si>
-    <t>Strathmore Union Elementary</t>
-  </si>
-  <si>
-    <t>Rio Elementary</t>
-  </si>
-  <si>
-    <t>Santa Rita Union Elementary</t>
-  </si>
-  <si>
-    <t>Lawndale Elementary</t>
-  </si>
-  <si>
-    <t>Robla Elementary</t>
-  </si>
-  <si>
-    <t>Santa Maria-Bonita Elementary</t>
-  </si>
-  <si>
-    <t>Eastside Union Elementary</t>
-  </si>
-  <si>
-    <t>Whittier City Elementary</t>
-  </si>
-  <si>
-    <t>Salinas City Elementary</t>
-  </si>
-  <si>
-    <t>Chowchilla Elementary</t>
-  </si>
-  <si>
-    <t>Hawthorne Elementary</t>
-  </si>
-  <si>
-    <t>Franklin-McKinley Elementary</t>
-  </si>
-  <si>
-    <t>Bakersfield City Elementary</t>
-  </si>
-  <si>
-    <t>Alum Rock Union Elementary</t>
-  </si>
-  <si>
-    <t>Edison Elementary</t>
-  </si>
-  <si>
-    <t>Valle Lindo Elementary</t>
-  </si>
-  <si>
-    <t>Delano Union Elementary</t>
-  </si>
-  <si>
-    <t>Perris Elementary</t>
-  </si>
-  <si>
-    <t>El Nido Elementary</t>
-  </si>
-  <si>
-    <t>Fairfax Elementary</t>
-  </si>
-  <si>
-    <t>Oxnard Elementary</t>
-  </si>
-  <si>
-    <t>Ravenswood City Elementary</t>
-  </si>
-  <si>
-    <t>Richland-Lerdo Union Elementary</t>
-  </si>
-  <si>
-    <t>Raisin City Elementary</t>
-  </si>
-  <si>
-    <t>Winton Elementary</t>
-  </si>
-  <si>
-    <t>Los Nietos Elementary</t>
-  </si>
-  <si>
-    <t>Ontario-Montclair Elementary</t>
-  </si>
-  <si>
-    <t>King City Union Elementary</t>
-  </si>
-  <si>
-    <t>Soledad Unified</t>
-  </si>
-  <si>
-    <t>San Ysidro Elementary</t>
-  </si>
-  <si>
-    <t>Tipton Elementary</t>
-  </si>
-  <si>
-    <t>Terra Bella Union Elementary</t>
-  </si>
-  <si>
-    <t>Arvin Union Elementary</t>
-  </si>
-  <si>
-    <t>Alisal Union Elementary</t>
-  </si>
-  <si>
-    <t>Woodlake Union Elementary</t>
-  </si>
-  <si>
-    <t>Livingston Union Elementary</t>
-  </si>
-  <si>
-    <t>Alta Vista Elementary</t>
-  </si>
-  <si>
-    <t>Wasco Union Elementary</t>
-  </si>
-  <si>
-    <t>Pleasant View Elementary</t>
-  </si>
-  <si>
-    <t>Westmorland Union Elementary</t>
-  </si>
-  <si>
-    <t>Lamont Elementary</t>
-  </si>
-  <si>
-    <t>Lennox Elementary</t>
-  </si>
-  <si>
-    <t>Buttonwillow Union Elementary</t>
-  </si>
-  <si>
-    <t>Lost Hills Union Elementary</t>
-  </si>
-  <si>
-    <t>Pixley Union Elementary</t>
-  </si>
-  <si>
-    <t>Woodville Elementary</t>
-  </si>
-  <si>
-    <t>Sunnyside Union Elementary</t>
-  </si>
-  <si>
-    <t>Allensworth Elementary</t>
-  </si>
-  <si>
-    <t>West Fresno Elementary</t>
-  </si>
-  <si>
-    <t>Le Grand Union Elementary</t>
-  </si>
-  <si>
-    <t>Del Paso Heights Elementary</t>
-  </si>
-  <si>
-    <t>Orange Center Elementary</t>
-  </si>
-  <si>
-    <t>Vineland Elementary</t>
-  </si>
-  <si>
-    <t>Holt Union Elementary</t>
-  </si>
-  <si>
-    <t>Burrel Union Elementary</t>
+    <t xml:space="preserve">district</t>
+  </si>
+  <si>
+    <t xml:space="preserve">school</t>
+  </si>
+  <si>
+    <t xml:space="preserve">county</t>
+  </si>
+  <si>
+    <t xml:space="preserve">grades</t>
+  </si>
+  <si>
+    <t xml:space="preserve">students</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teachers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">calworks</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lunch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">computer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">expenditure</t>
+  </si>
+  <si>
+    <t xml:space="preserve">income</t>
+  </si>
+  <si>
+    <t xml:space="preserve">english</t>
+  </si>
+  <si>
+    <t xml:space="preserve">read</t>
+  </si>
+  <si>
+    <t xml:space="preserve">math</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Altos Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Clara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK-08</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Las Lomitas Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Mateo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saratoga Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Portola Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cold Spring Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Barbara</t>
+  </si>
+  <si>
+    <t xml:space="preserve">KK-06</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hillsborough City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orinda Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Contra Costa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moraga Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del Mar Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Diego</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodside Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lafayette Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mill Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reed Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menlo Park City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solana Beach Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montecito Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunol Glen Unified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alameda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Gatos Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cupertino Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Larkspur Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hope Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walnut Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonny Doon Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burlingame Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grant Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shasta</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak Grove Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonoma</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ross Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballard Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kentfield Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knights Ferry Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislaus</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Liberty Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kenwood Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loma Prieta Joint Union Elemen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bennett Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rincon Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monterey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakeside Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hermosa Beach City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Angeles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dixie Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Encinitas Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Ross Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nevada</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jacoby Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Humboldt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Cow Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaverville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesa Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ventura</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newcastle Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Ridge Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Douglas City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacific Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Hills Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Hill Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Latrobe Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Dorado</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Pasqual Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta-Dutch Flat Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rescue Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Belmont-Redwood Shores Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Two Rock Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clay Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fresno</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Waugh Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coarsegold Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Madera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richmond Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plumas Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yuba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cayucos Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Luis Obisp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ready Springs Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunham Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Carlos Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loomis Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saugus Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placer Hills Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rocklin Unified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buckeye Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Trail Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hydesville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fountain Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gold Oak Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fruitvale Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cottonwood Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fieldbrook Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dehesa Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richfield Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tehama</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Newhall Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cambrian Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lowell Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cypress Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bonsall Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lagunitas Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Saucelito Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulare</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cardiff Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings River-Hardwick Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Julian Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Maple Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moreland Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Springville Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Norris Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Freshwater Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alpine Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sebastopol Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Curtis Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tuolumne</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fort Jones Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Siskiyou</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santee Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark West Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Johnstonville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pioneer Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soquel Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">La Mesa-Spring Valley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gravenstein Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Solvang Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Capay Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Glenn</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Huntington Beach City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">College Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunnyvale Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Helendale Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Bernardino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Petaluma City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Goleta Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Mateo-Foster City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ocean View Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mother Lode Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Foresthill Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta Loma Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evergreen Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Cruz City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wright Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcata Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Old Adobe Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ackerman Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilmar Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Placerville Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cutten Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bass Lake Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Piner-Olivet Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosedale Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbine Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Shasta Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Colfax Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sulphur Springs Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain View Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bella Vista Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hughes-Elizabeth Lakes Union Elementar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Forestville Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Susanville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Panama Buena Vista Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gratton Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sonora Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roseville City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Laguna Salada Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Evergreen Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Millbrae Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ballico-Cressey Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merced</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Manzanita Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Butte</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harmony Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westside Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Columbia Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sundale Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Three Rivers Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alexander Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Yreka Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chawanakee Jt. Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twin Ridges Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Castaic Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buellton Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bishop Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inyo</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak Grove Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pollock Pines Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Valley Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Scotia Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wiseburn Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Centralia Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etiwanda Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Antelope Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Bruno Park Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guerneville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Clear Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Browns Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sutter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Campbell Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cajon Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Trinidad Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Rafael City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mark Twain Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Calaveras</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Happy Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pacheco Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brisbane Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chicago Park Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Central Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North County Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Benito</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wheatland Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak View Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Joaquin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kit Carson Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Auburn Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Berryessa Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sylvan Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alvina Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jefferson Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oakley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lakeside Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Southside Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Etna Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Galt Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sacramento</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuestro Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kernville Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rosemead Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grass Valley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena Vista Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Junction Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Loleta Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lassen View Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lammersville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCabe Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Imperial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whisman Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Menifee Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Riverside</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Live Oak Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamul-Dulzura Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Fork Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Barbara Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountain Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cinnabar Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rohnerville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant Grove Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fullerton Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shaffer Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monte Rio Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Janesville Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plaza Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rockford  Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shasta Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salida Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Rosa Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fortuna Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ophir Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montgomery Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Summerville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brentwood Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Bay Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weed Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jamestown Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Red Bluff Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enterprise Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Savanna Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Side Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Victor Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vallecitos Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Marcum-Illinois Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Bravo-Greeley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">East Whittier City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Escondido Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Golden Feather Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McSwain Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franklin Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chula Vista Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tulare City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Black Butte Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westminster Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Island Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buena Park Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dunsmuir Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">New Jerusalem Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kingsburg Joint Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stanislaus Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arcohe Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Peninsula Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reeds Creek Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Upper Lake Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemon Grove Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hueneme Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Blue Lake Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Somis Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cuddeback Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merced River Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chatom Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Washington Colony Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Linda Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Banta Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plainsburg Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Redwood City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Camino Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">General Shafter Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Twain Harte-Long Barn Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Thermalito Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Turlock Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Garvey Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Corning Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bellevue Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nuview Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Big Springs Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burton Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">American Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Antonio Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exeter Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gerber Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kings River Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cascade Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Centro Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mt. Pleasant Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Magnolia Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palermo Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alview-Dairyland Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lancaster Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Briggs Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monroe Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Standard Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oroville City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palmdale Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hollister School District</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Adelanto Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brittan Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arena Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mendocino</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Taft City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pond Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Meadows Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brawley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Little Lake City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wilsona Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bayshore Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oak Valley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bangor Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Luther Burbank Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucerne Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Elverta Joint Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Monte City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Palo Verde Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Greenfield Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Romoland Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lucerne Valley Unified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Weaver Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Atwater Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Park Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Paula Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">McCloud Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Montague Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Guadalupe Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Knightsen Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Dell Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cucamonga Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Merced City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Keppel Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Di Giorgio Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">National Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">South Whittier Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roseland Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hanford Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Armona Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Beardsley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lemoore Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Anaheim Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">North Sacramento Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Strathmore Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rio Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Rita Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lawndale Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Robla Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Santa Maria-Bonita Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eastside Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Whittier City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Salinas City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Chowchilla Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hawthorne Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Franklin-McKinley Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bakersfield City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alum Rock Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Edison Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Valle Lindo Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delano Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perris Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El Nido Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fairfax Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oxnard Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ravenswood City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Richland-Lerdo Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Raisin City Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Winton Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Los Nietos Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ontario-Montclair Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">King City Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soledad Unified</t>
+  </si>
+  <si>
+    <t xml:space="preserve">San Ysidro Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tipton Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Terra Bella Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arvin Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alisal Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodlake Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Livingston Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alta Vista Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wasco Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pleasant View Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Westmorland Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lamont Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lennox Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Buttonwillow Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Lost Hills Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pixley Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Woodville Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sunnyside Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Allensworth Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">West Fresno Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le Grand Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Del Paso Heights Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Orange Center Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vineland Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Holt Union Elementary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Burrel Union Elementary</t>
   </si>
 </sst>
 </file>
@@ -1746,7 +1746,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
